--- a/InputData/bldgs/EoCEDwEC/Elast of Component E Demand wrt E Cost.xlsx
+++ b/InputData/bldgs/EoCEDwEC/Elast of Component E Demand wrt E Cost.xlsx
@@ -1,27 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\bldgs\EoCEDwEC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdeet\Documents\analysis\thirdParty\EPS Decarbonization Model\eps-us-2.1.1.2\InputData\bldgs\EoCEDwEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680CA530-6587-4C02-9F40-572336D96187}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="19425" windowHeight="11025"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="EIA Table 1" sheetId="2" r:id="rId2"/>
-    <sheet name="EoCEDwEC" sheetId="3" r:id="rId3"/>
+    <sheet name="Texas Notes" sheetId="4" r:id="rId3"/>
+    <sheet name="EoCEDwEC" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="84">
   <si>
     <t>EoCEDwEC Elasticity of Component Energy Demand wrt Energy Cost</t>
   </si>
@@ -180,13 +192,109 @@
   </si>
   <si>
     <t>Elasticity by Fuel (dimensionless)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPS numbers are based on national elasticity estimates, so we need to find some Texas specific numbers. </t>
+  </si>
+  <si>
+    <t>The method here is similar to what I did for the Elast of Bldg Svc Demand wrt E Costs spreadsheet</t>
+  </si>
+  <si>
+    <t>Except here I am using long run elasticity instead of short run elasticity</t>
+  </si>
+  <si>
+    <t>Texas Specific Data:</t>
+  </si>
+  <si>
+    <t>A 2006 NREL study about the elasticity of energy use by different regions</t>
+  </si>
+  <si>
+    <t>https://www.nrel.gov/docs/fy06osti/39512.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The study has state-level results, but they tend to have high uncertainty and wide standard deviations. </t>
+  </si>
+  <si>
+    <t>The study also has regional results, which are more robust. Texas is the "West South Central" (WSC) region with Oklahoma, Lousiana, and Arkansas.</t>
+  </si>
+  <si>
+    <t>Assume that the WSC region results will reflect Texas better than the national results. Assume that the state-level results are too uncertain to use here.</t>
+  </si>
+  <si>
+    <t>Takeaways</t>
+  </si>
+  <si>
+    <t>National Results (table 3.4)</t>
+  </si>
+  <si>
+    <t>West South Central Results</t>
+  </si>
+  <si>
+    <t>Adjustments</t>
+  </si>
+  <si>
+    <t>res elec</t>
+  </si>
+  <si>
+    <t>Texas elasticity is 54% of national</t>
+  </si>
+  <si>
+    <t>comm elec</t>
+  </si>
+  <si>
+    <t>Texas elasticity is 55% of national</t>
+  </si>
+  <si>
+    <t>res gas</t>
+  </si>
+  <si>
+    <t>Texas elasticity is 25% of national</t>
+  </si>
+  <si>
+    <t>Assumptions</t>
+  </si>
+  <si>
+    <t>Then:</t>
+  </si>
+  <si>
+    <t>OLD EPS VALUES</t>
+  </si>
+  <si>
+    <t>NEW TEXAS VALUES</t>
+  </si>
+  <si>
+    <t>long run elasticity for residential electricity</t>
+  </si>
+  <si>
+    <t>long run elasticity for commercial electricity</t>
+  </si>
+  <si>
+    <t>long run elasticity for residential natural gas</t>
+  </si>
+  <si>
+    <t>long run elasticity for residential electricity (Fig 4.6)</t>
+  </si>
+  <si>
+    <t>long run elasticity for commercial electricity (Fig 4.9)</t>
+  </si>
+  <si>
+    <t>long run elasticity for residential natural gas (Fig 4.13)</t>
+  </si>
+  <si>
+    <t>since Texas vs. National adjustments for electricity are about double for residential (0.56) than commercial (.26) assume that the same ratio holds for natural gas: i.e., residential=0.17, commercial=0.08</t>
+  </si>
+  <si>
+    <t>assume that the adjusftment factor for other fuels (coal, diesel, etc.) is  the same as for natural gas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,8 +318,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,20 +347,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -362,12 +473,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -401,18 +521,58 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -501,6 +661,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -536,6 +713,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -711,10 +905,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -861,7 +1057,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -869,7 +1065,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1133,13 +1329,510 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A24A6B0-9EAC-4377-ABF4-0CCE774154F2}">
+  <dimension ref="A1:H46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>-0.32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>-0.97</v>
+      </c>
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="24">
+        <v>-0.36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>-0.18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>-0.25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="24">
+        <v>-0.06</v>
+      </c>
+      <c r="B22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="24">
+        <f>A20/A15</f>
+        <v>0.5625</v>
+      </c>
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="24">
+        <f t="shared" ref="A26:A27" si="0">A21/A16</f>
+        <v>0.25773195876288663</v>
+      </c>
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="24">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="B27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="F35" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+    </row>
+    <row r="36" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H36" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="28">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="C37" s="28">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="D37" s="28">
+        <v>-0.35</v>
+      </c>
+      <c r="F37">
+        <f>B37*A25</f>
+        <v>-0.16312499999999999</v>
+      </c>
+      <c r="G37">
+        <f>F37</f>
+        <v>-0.16312499999999999</v>
+      </c>
+      <c r="H37">
+        <f>D37*A26</f>
+        <v>-9.0206185567010308E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="28">
+        <v>-0.44999999999999996</v>
+      </c>
+      <c r="C38" s="28">
+        <v>-0.44999999999999996</v>
+      </c>
+      <c r="D38" s="28">
+        <v>-0.26</v>
+      </c>
+      <c r="F38">
+        <f>B38*$A$27</f>
+        <v>-7.4999999999999983E-2</v>
+      </c>
+      <c r="G38">
+        <f>F38</f>
+        <v>-7.4999999999999983E-2</v>
+      </c>
+      <c r="H38">
+        <f>D38*0.08</f>
+        <v>-2.0800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="28">
+        <v>-0.26999999999999996</v>
+      </c>
+      <c r="C39" s="28">
+        <v>-0.26999999999999996</v>
+      </c>
+      <c r="D39" s="28">
+        <v>-0.26</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ref="F39:F46" si="1">B39*$A$27</f>
+        <v>-4.4999999999999991E-2</v>
+      </c>
+      <c r="G39">
+        <f t="shared" ref="G39:G46" si="2">F39</f>
+        <v>-4.4999999999999991E-2</v>
+      </c>
+      <c r="H39">
+        <f t="shared" ref="H39:H46" si="3">D39*0.08</f>
+        <v>-2.0800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="28">
+        <v>-0.44999999999999996</v>
+      </c>
+      <c r="C40" s="28">
+        <v>-0.44999999999999996</v>
+      </c>
+      <c r="D40" s="28">
+        <v>-0.26</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>-7.4999999999999983E-2</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="2"/>
+        <v>-7.4999999999999983E-2</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="3"/>
+        <v>-2.0800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="28">
+        <v>0</v>
+      </c>
+      <c r="C41" s="28">
+        <v>0</v>
+      </c>
+      <c r="D41" s="28">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="28">
+        <v>0</v>
+      </c>
+      <c r="C42" s="28">
+        <v>0</v>
+      </c>
+      <c r="D42" s="28">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="28">
+        <v>-0.44999999999999996</v>
+      </c>
+      <c r="C43" s="28">
+        <v>-0.44999999999999996</v>
+      </c>
+      <c r="D43" s="28">
+        <v>-0.26</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>-7.4999999999999983E-2</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="2"/>
+        <v>-7.4999999999999983E-2</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="3"/>
+        <v>-2.0800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="28">
+        <v>-0.44999999999999996</v>
+      </c>
+      <c r="C44" s="28">
+        <v>-0.44999999999999996</v>
+      </c>
+      <c r="D44" s="28">
+        <v>-0.26</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>-7.4999999999999983E-2</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="2"/>
+        <v>-7.4999999999999983E-2</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="3"/>
+        <v>-2.0800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="28">
+        <v>-0.26999999999999996</v>
+      </c>
+      <c r="C45" s="28">
+        <v>-0.26999999999999996</v>
+      </c>
+      <c r="D45" s="28">
+        <v>-0.26</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>-4.4999999999999991E-2</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="2"/>
+        <v>-4.4999999999999991E-2</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="3"/>
+        <v>-2.0800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="28">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="C46" s="28">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="D46" s="28">
+        <v>-0.35</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>-4.8333333333333325E-2</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="2"/>
+        <v>-4.8333333333333325E-2</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="3"/>
+        <v>-2.7999999999999997E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="F35:H35"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B15:B17">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:B27 B30:B31">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:B22">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A8" r:id="rId1" xr:uid="{764691C7-A221-4236-A0B4-BEBBE13F4247}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1149,7 +1842,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="23" t="s">
         <v>52</v>
       </c>
       <c r="B1" s="22" t="s">
@@ -1166,82 +1859,84 @@
       <c r="A2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="24">
-        <f>'EIA Table 1'!E7-'EIA Table 1'!B7</f>
-        <v>-0.28999999999999998</v>
-      </c>
-      <c r="C2" s="24">
-        <f>B2</f>
-        <v>-0.28999999999999998</v>
-      </c>
-      <c r="D2" s="24">
-        <f>'EIA Table 1'!E14-'EIA Table 1'!B14</f>
-        <v>-0.35</v>
+      <c r="B2" s="29">
+        <f>'Texas Notes'!F37</f>
+        <v>-0.16312499999999999</v>
+      </c>
+      <c r="C2" s="29">
+        <f>'Texas Notes'!G37</f>
+        <v>-0.16312499999999999</v>
+      </c>
+      <c r="D2" s="29">
+        <f>'Texas Notes'!H37</f>
+        <v>-9.0206185567010308E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="23">
-        <f>B5</f>
-        <v>-0.44999999999999996</v>
-      </c>
-      <c r="C3" s="23">
-        <f t="shared" ref="C3:C6" si="0">B3</f>
-        <v>-0.44999999999999996</v>
-      </c>
-      <c r="D3" s="23">
-        <f>D5</f>
-        <v>-0.26</v>
+      <c r="B3" s="29">
+        <f>'Texas Notes'!F38</f>
+        <v>-7.4999999999999983E-2</v>
+      </c>
+      <c r="C3" s="29">
+        <f>'Texas Notes'!G38</f>
+        <v>-7.4999999999999983E-2</v>
+      </c>
+      <c r="D3" s="29">
+        <f>'Texas Notes'!H38</f>
+        <v>-2.0800000000000003E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="24">
-        <f>'EIA Table 1'!F8-'EIA Table 1'!B8</f>
-        <v>-0.26999999999999996</v>
-      </c>
-      <c r="C4" s="24">
-        <f t="shared" si="0"/>
-        <v>-0.26999999999999996</v>
-      </c>
-      <c r="D4" s="24">
-        <f>'EIA Table 1'!F15-'EIA Table 1'!B15</f>
-        <v>-0.26</v>
+      <c r="B4" s="29">
+        <f>'Texas Notes'!F39</f>
+        <v>-4.4999999999999991E-2</v>
+      </c>
+      <c r="C4" s="29">
+        <f>'Texas Notes'!G39</f>
+        <v>-4.4999999999999991E-2</v>
+      </c>
+      <c r="D4" s="29">
+        <f>'Texas Notes'!H39</f>
+        <v>-2.0800000000000003E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="24">
-        <f>'EIA Table 1'!G9-'EIA Table 1'!B9</f>
-        <v>-0.44999999999999996</v>
-      </c>
-      <c r="C5" s="24">
-        <f t="shared" si="0"/>
-        <v>-0.44999999999999996</v>
-      </c>
-      <c r="D5" s="24">
-        <f>'EIA Table 1'!G16-'EIA Table 1'!B16</f>
-        <v>-0.26</v>
+      <c r="B5" s="29">
+        <f>'Texas Notes'!F40</f>
+        <v>-7.4999999999999983E-2</v>
+      </c>
+      <c r="C5" s="29">
+        <f>'Texas Notes'!G40</f>
+        <v>-7.4999999999999983E-2</v>
+      </c>
+      <c r="D5" s="29">
+        <f>'Texas Notes'!H40</f>
+        <v>-2.0800000000000003E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="29">
+        <f>'Texas Notes'!F41</f>
         <v>0</v>
       </c>
-      <c r="C6" s="25">
-        <f t="shared" si="0"/>
+      <c r="C6" s="29">
+        <f>'Texas Notes'!G41</f>
         <v>0</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="29">
+        <f>'Texas Notes'!H41</f>
         <v>0</v>
       </c>
     </row>
@@ -1249,13 +1944,16 @@
       <c r="A7" t="s">
         <v>41</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="29">
+        <f>'Texas Notes'!F42</f>
         <v>0</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="29">
+        <f>'Texas Notes'!G42</f>
         <v>0</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="29">
+        <f>'Texas Notes'!H42</f>
         <v>0</v>
       </c>
     </row>
@@ -1263,74 +1961,71 @@
       <c r="A8" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="23">
-        <f>B5</f>
-        <v>-0.44999999999999996</v>
-      </c>
-      <c r="C8" s="23">
-        <f t="shared" ref="C8:D8" si="1">C5</f>
-        <v>-0.44999999999999996</v>
-      </c>
-      <c r="D8" s="23">
-        <f t="shared" si="1"/>
-        <v>-0.26</v>
+      <c r="B8" s="29">
+        <f>'Texas Notes'!F43</f>
+        <v>-7.4999999999999983E-2</v>
+      </c>
+      <c r="C8" s="29">
+        <f>'Texas Notes'!G43</f>
+        <v>-7.4999999999999983E-2</v>
+      </c>
+      <c r="D8" s="29">
+        <f>'Texas Notes'!H43</f>
+        <v>-2.0800000000000003E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="23">
-        <f>B5</f>
-        <v>-0.44999999999999996</v>
-      </c>
-      <c r="C9" s="23">
-        <f t="shared" ref="C9:D9" si="2">C5</f>
-        <v>-0.44999999999999996</v>
-      </c>
-      <c r="D9" s="23">
-        <f t="shared" si="2"/>
-        <v>-0.26</v>
+      <c r="B9" s="29">
+        <f>'Texas Notes'!F44</f>
+        <v>-7.4999999999999983E-2</v>
+      </c>
+      <c r="C9" s="29">
+        <f>'Texas Notes'!G44</f>
+        <v>-7.4999999999999983E-2</v>
+      </c>
+      <c r="D9" s="29">
+        <f>'Texas Notes'!H44</f>
+        <v>-2.0800000000000003E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="23">
-        <f>B4</f>
-        <v>-0.26999999999999996</v>
-      </c>
-      <c r="C10" s="23">
-        <f t="shared" ref="C10:D10" si="3">C4</f>
-        <v>-0.26999999999999996</v>
-      </c>
-      <c r="D10" s="23">
-        <f t="shared" si="3"/>
-        <v>-0.26</v>
+      <c r="B10" s="29">
+        <f>'Texas Notes'!F45</f>
+        <v>-4.4999999999999991E-2</v>
+      </c>
+      <c r="C10" s="29">
+        <f>'Texas Notes'!G45</f>
+        <v>-4.4999999999999991E-2</v>
+      </c>
+      <c r="D10" s="29">
+        <f>'Texas Notes'!H45</f>
+        <v>-2.0800000000000003E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="23">
-        <f>B2</f>
-        <v>-0.28999999999999998</v>
-      </c>
-      <c r="C11" s="23">
-        <f t="shared" ref="C11:D11" si="4">C2</f>
-        <v>-0.28999999999999998</v>
-      </c>
-      <c r="D11" s="23">
-        <f t="shared" si="4"/>
-        <v>-0.35</v>
+      <c r="B11" s="29">
+        <f>'Texas Notes'!F46</f>
+        <v>-4.8333333333333325E-2</v>
+      </c>
+      <c r="C11" s="29">
+        <f>'Texas Notes'!G46</f>
+        <v>-4.8333333333333325E-2</v>
+      </c>
+      <c r="D11" s="29">
+        <f>'Texas Notes'!H46</f>
+        <v>-2.7999999999999997E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="C3" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/InputData/bldgs/EoCEDwEC/Elast of Component E Demand wrt E Cost.xlsx
+++ b/InputData/bldgs/EoCEDwEC/Elast of Component E Demand wrt E Cost.xlsx
@@ -1,39 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdeet\Documents\analysis\thirdParty\EPS Decarbonization Model\eps-us-2.1.1.2\InputData\bldgs\EoCEDwEC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\bldgs\EoCEDwEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680CA530-6587-4C02-9F40-572336D96187}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="19425" windowHeight="11025" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="EIA Table 1" sheetId="2" r:id="rId2"/>
-    <sheet name="Texas Notes" sheetId="4" r:id="rId3"/>
-    <sheet name="EoCEDwEC" sheetId="3" r:id="rId4"/>
+    <sheet name="EoCEDwEC" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
   <si>
     <t>EoCEDwEC Elasticity of Component Energy Demand wrt Energy Cost</t>
   </si>
@@ -44,15 +32,6 @@
     <t>U.S. Energy Information Administration</t>
   </si>
   <si>
-    <t>Price Responsiveness in the AEO 2003 NEMS Residential and Commercial Buildings Sector Models</t>
-  </si>
-  <si>
-    <t>http://www.eia.gov/oiaf/analysispaper/elasticity/pdf/tbl.pdf</t>
-  </si>
-  <si>
-    <t>Page 1, Table 1</t>
-  </si>
-  <si>
     <t>This is a subset of Table 1 that includes only values from AEO2003 (not AEO99).</t>
   </si>
   <si>
@@ -110,21 +89,12 @@
     <t>Note:</t>
   </si>
   <si>
-    <t>We use same-price, long-run elasticities minus the 1-year short-run elasticities.</t>
-  </si>
-  <si>
-    <t>We calculate it this way because we assume that 1-year elasticities primarily reflect behavior</t>
-  </si>
-  <si>
     <t>change rather than equipment change, and the response of behavior to price per unit service</t>
   </si>
   <si>
     <t>provided (that is, controlling for things like efficiency of equipment) should be constant at</t>
   </si>
   <si>
-    <t>all timescales.  So, the portion of the long-run elasticitiy represented by the 1-year elasticity</t>
-  </si>
-  <si>
     <t>is still behavior change, and the rest is equipment efficiency change, which is what we are</t>
   </si>
   <si>
@@ -194,107 +164,29 @@
     <t>Elasticity by Fuel (dimensionless)</t>
   </si>
   <si>
-    <t xml:space="preserve">EPS numbers are based on national elasticity estimates, so we need to find some Texas specific numbers. </t>
-  </si>
-  <si>
-    <t>The method here is similar to what I did for the Elast of Bldg Svc Demand wrt E Costs spreadsheet</t>
-  </si>
-  <si>
-    <t>Except here I am using long run elasticity instead of short run elasticity</t>
-  </si>
-  <si>
-    <t>Texas Specific Data:</t>
-  </si>
-  <si>
-    <t>A 2006 NREL study about the elasticity of energy use by different regions</t>
-  </si>
-  <si>
-    <t>https://www.nrel.gov/docs/fy06osti/39512.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The study has state-level results, but they tend to have high uncertainty and wide standard deviations. </t>
-  </si>
-  <si>
-    <t>The study also has regional results, which are more robust. Texas is the "West South Central" (WSC) region with Oklahoma, Lousiana, and Arkansas.</t>
-  </si>
-  <si>
-    <t>Assume that the WSC region results will reflect Texas better than the national results. Assume that the state-level results are too uncertain to use here.</t>
-  </si>
-  <si>
-    <t>Takeaways</t>
-  </si>
-  <si>
-    <t>National Results (table 3.4)</t>
-  </si>
-  <si>
-    <t>West South Central Results</t>
-  </si>
-  <si>
-    <t>Adjustments</t>
-  </si>
-  <si>
-    <t>res elec</t>
-  </si>
-  <si>
-    <t>Texas elasticity is 54% of national</t>
-  </si>
-  <si>
-    <t>comm elec</t>
-  </si>
-  <si>
-    <t>Texas elasticity is 55% of national</t>
-  </si>
-  <si>
-    <t>res gas</t>
-  </si>
-  <si>
-    <t>Texas elasticity is 25% of national</t>
-  </si>
-  <si>
-    <t>Assumptions</t>
-  </si>
-  <si>
-    <t>Then:</t>
-  </si>
-  <si>
-    <t>OLD EPS VALUES</t>
-  </si>
-  <si>
-    <t>NEW TEXAS VALUES</t>
-  </si>
-  <si>
-    <t>long run elasticity for residential electricity</t>
-  </si>
-  <si>
-    <t>long run elasticity for commercial electricity</t>
-  </si>
-  <si>
-    <t>long run elasticity for residential natural gas</t>
-  </si>
-  <si>
-    <t>long run elasticity for residential electricity (Fig 4.6)</t>
-  </si>
-  <si>
-    <t>long run elasticity for commercial electricity (Fig 4.9)</t>
-  </si>
-  <si>
-    <t>long run elasticity for residential natural gas (Fig 4.13)</t>
-  </si>
-  <si>
-    <t>since Texas vs. National adjustments for electricity are about double for residential (0.56) than commercial (.26) assume that the same ratio holds for natural gas: i.e., residential=0.17, commercial=0.08</t>
-  </si>
-  <si>
-    <t>assume that the adjusftment factor for other fuels (coal, diesel, etc.) is  the same as for natural gas</t>
+    <t>https://www.eia.gov/analysis/studies/buildings/energyuse/pdf/price_elasticities.pdf</t>
+  </si>
+  <si>
+    <t>Price Elasticities for Energy Use in Buildings of the United States</t>
+  </si>
+  <si>
+    <t>Appendix</t>
+  </si>
+  <si>
+    <t>We use same-price, long-run elasticities minus the 3-year short-run elasticities.</t>
+  </si>
+  <si>
+    <t>We calculate it this way because we assume that 3-year elasticities primarily reflect behavior</t>
+  </si>
+  <si>
+    <t>all timescales.  So, the portion of the long-run elasticitiy represented by the 3-year elasticity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
-  </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,23 +210,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,8 +224,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -473,21 +362,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -521,58 +401,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -661,23 +501,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -713,23 +536,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -905,11 +711,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,134 +736,134 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -1065,10 +871,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1083,17 +891,17 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -1105,57 +913,57 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="6"/>
       <c r="E5" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="E6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="F6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="G6" s="18" t="s">
         <v>12</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B7" s="7">
-        <v>-0.2</v>
+        <v>-0.12</v>
       </c>
       <c r="C7" s="8">
-        <v>-0.28999999999999998</v>
+        <v>-0.21</v>
       </c>
       <c r="D7" s="9">
-        <v>-0.34</v>
+        <v>-0.25</v>
       </c>
       <c r="E7" s="7">
-        <v>-0.49</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="F7" s="8">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G7" s="9">
         <v>0</v>
@@ -1163,53 +971,53 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8" s="7">
-        <v>-0.14000000000000001</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="C8" s="8">
-        <v>-0.24</v>
+        <v>-0.13</v>
       </c>
       <c r="D8" s="9">
-        <v>-0.3</v>
+        <v>-0.15</v>
       </c>
       <c r="E8" s="7">
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
       <c r="F8" s="19">
-        <v>-0.41</v>
+        <v>-0.21</v>
       </c>
       <c r="G8" s="9">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9" s="10">
-        <v>-0.15</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="C9" s="11">
-        <v>-0.27</v>
+        <v>-0.12</v>
       </c>
       <c r="D9" s="12">
-        <v>-0.34</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="E9" s="10">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F9" s="11">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="G9" s="12">
-        <v>-0.6</v>
+        <v>-0.22</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -1221,57 +1029,57 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
       <c r="E12" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="E13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="F13" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="G13" s="18" t="s">
         <v>12</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B14" s="7">
-        <v>-0.1</v>
+        <v>-0.11</v>
       </c>
       <c r="C14" s="8">
-        <v>-0.17</v>
+        <v>-0.18</v>
       </c>
       <c r="D14" s="9">
-        <v>-0.2</v>
+        <v>-0.22</v>
       </c>
       <c r="E14" s="7">
-        <v>-0.45</v>
+        <v>-0.33</v>
       </c>
       <c r="F14" s="19">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="G14" s="9">
         <v>0</v>
@@ -1279,48 +1087,48 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B15" s="7">
-        <v>-0.14000000000000001</v>
+        <v>-0.15</v>
       </c>
       <c r="C15" s="8">
-        <v>-0.24</v>
+        <v>-0.25</v>
       </c>
       <c r="D15" s="9">
-        <v>-0.28999999999999998</v>
+        <v>-0.3</v>
       </c>
       <c r="E15" s="7">
-        <v>0.86</v>
+        <v>0.15</v>
       </c>
       <c r="F15" s="19">
-        <v>-0.4</v>
+        <v>-0.57999999999999996</v>
       </c>
       <c r="G15" s="9">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B16" s="10">
-        <v>-0.13</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="C16" s="11">
-        <v>-0.23</v>
+        <v>-0.24</v>
       </c>
       <c r="D16" s="12">
-        <v>-0.28000000000000003</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="E16" s="10">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F16" s="11">
-        <v>0.75</v>
+        <v>0.05</v>
       </c>
       <c r="G16" s="12">
-        <v>-0.39</v>
+        <v>-0.42</v>
       </c>
     </row>
   </sheetData>
@@ -1329,509 +1137,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A24A6B0-9EAC-4377-ABF4-0CCE774154F2}">
-  <dimension ref="A1:H46"/>
-  <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>-0.32</v>
-      </c>
-      <c r="B15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>-0.97</v>
-      </c>
-      <c r="B16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="24">
-        <v>-0.36</v>
-      </c>
-      <c r="B17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>-0.18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>-0.25</v>
-      </c>
-      <c r="B21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="24">
-        <v>-0.06</v>
-      </c>
-      <c r="B22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="24">
-        <f>A20/A15</f>
-        <v>0.5625</v>
-      </c>
-      <c r="B25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="24">
-        <f t="shared" ref="A26:A27" si="0">A21/A16</f>
-        <v>0.25773195876288663</v>
-      </c>
-      <c r="B26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="24">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="B27" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="F35" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-    </row>
-    <row r="36" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="G36" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="H36" s="22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" s="28">
-        <v>-0.28999999999999998</v>
-      </c>
-      <c r="C37" s="28">
-        <v>-0.28999999999999998</v>
-      </c>
-      <c r="D37" s="28">
-        <v>-0.35</v>
-      </c>
-      <c r="F37">
-        <f>B37*A25</f>
-        <v>-0.16312499999999999</v>
-      </c>
-      <c r="G37">
-        <f>F37</f>
-        <v>-0.16312499999999999</v>
-      </c>
-      <c r="H37">
-        <f>D37*A26</f>
-        <v>-9.0206185567010308E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38" s="28">
-        <v>-0.44999999999999996</v>
-      </c>
-      <c r="C38" s="28">
-        <v>-0.44999999999999996</v>
-      </c>
-      <c r="D38" s="28">
-        <v>-0.26</v>
-      </c>
-      <c r="F38">
-        <f>B38*$A$27</f>
-        <v>-7.4999999999999983E-2</v>
-      </c>
-      <c r="G38">
-        <f>F38</f>
-        <v>-7.4999999999999983E-2</v>
-      </c>
-      <c r="H38">
-        <f>D38*0.08</f>
-        <v>-2.0800000000000003E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" s="28">
-        <v>-0.26999999999999996</v>
-      </c>
-      <c r="C39" s="28">
-        <v>-0.26999999999999996</v>
-      </c>
-      <c r="D39" s="28">
-        <v>-0.26</v>
-      </c>
-      <c r="F39">
-        <f t="shared" ref="F39:F46" si="1">B39*$A$27</f>
-        <v>-4.4999999999999991E-2</v>
-      </c>
-      <c r="G39">
-        <f t="shared" ref="G39:G46" si="2">F39</f>
-        <v>-4.4999999999999991E-2</v>
-      </c>
-      <c r="H39">
-        <f t="shared" ref="H39:H46" si="3">D39*0.08</f>
-        <v>-2.0800000000000003E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>22</v>
-      </c>
-      <c r="B40" s="28">
-        <v>-0.44999999999999996</v>
-      </c>
-      <c r="C40" s="28">
-        <v>-0.44999999999999996</v>
-      </c>
-      <c r="D40" s="28">
-        <v>-0.26</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="1"/>
-        <v>-7.4999999999999983E-2</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="2"/>
-        <v>-7.4999999999999983E-2</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="3"/>
-        <v>-2.0800000000000003E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>23</v>
-      </c>
-      <c r="B41" s="28">
-        <v>0</v>
-      </c>
-      <c r="C41" s="28">
-        <v>0</v>
-      </c>
-      <c r="D41" s="28">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" s="28">
-        <v>0</v>
-      </c>
-      <c r="C42" s="28">
-        <v>0</v>
-      </c>
-      <c r="D42" s="28">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="28">
-        <v>-0.44999999999999996</v>
-      </c>
-      <c r="C43" s="28">
-        <v>-0.44999999999999996</v>
-      </c>
-      <c r="D43" s="28">
-        <v>-0.26</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="1"/>
-        <v>-7.4999999999999983E-2</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="2"/>
-        <v>-7.4999999999999983E-2</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="3"/>
-        <v>-2.0800000000000003E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" s="28">
-        <v>-0.44999999999999996</v>
-      </c>
-      <c r="C44" s="28">
-        <v>-0.44999999999999996</v>
-      </c>
-      <c r="D44" s="28">
-        <v>-0.26</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="1"/>
-        <v>-7.4999999999999983E-2</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="2"/>
-        <v>-7.4999999999999983E-2</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="3"/>
-        <v>-2.0800000000000003E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" s="28">
-        <v>-0.26999999999999996</v>
-      </c>
-      <c r="C45" s="28">
-        <v>-0.26999999999999996</v>
-      </c>
-      <c r="D45" s="28">
-        <v>-0.26</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="1"/>
-        <v>-4.4999999999999991E-2</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="2"/>
-        <v>-4.4999999999999991E-2</v>
-      </c>
-      <c r="H45">
-        <f t="shared" si="3"/>
-        <v>-2.0800000000000003E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" s="28">
-        <v>-0.28999999999999998</v>
-      </c>
-      <c r="C46" s="28">
-        <v>-0.28999999999999998</v>
-      </c>
-      <c r="D46" s="28">
-        <v>-0.35</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="1"/>
-        <v>-4.8333333333333325E-2</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="2"/>
-        <v>-4.8333333333333325E-2</v>
-      </c>
-      <c r="H46">
-        <f t="shared" si="3"/>
-        <v>-2.7999999999999997E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="F35:H35"/>
-  </mergeCells>
-  <conditionalFormatting sqref="B15:B17">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25:B27 B30:B31">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20:B22">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="A8" r:id="rId1" xr:uid="{764691C7-A221-4236-A0B4-BEBBE13F4247}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1842,190 +1155,188 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>52</v>
+      <c r="A1" s="26" t="s">
+        <v>46</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="29">
-        <f>'Texas Notes'!F37</f>
-        <v>-0.16312499999999999</v>
-      </c>
-      <c r="C2" s="29">
-        <f>'Texas Notes'!G37</f>
-        <v>-0.16312499999999999</v>
-      </c>
-      <c r="D2" s="29">
-        <f>'Texas Notes'!H37</f>
-        <v>-9.0206185567010308E-2</v>
+        <v>16</v>
+      </c>
+      <c r="B2" s="24">
+        <f>'EIA Table 1'!E7-'EIA Table 1'!D7</f>
+        <v>-3.0000000000000027E-2</v>
+      </c>
+      <c r="C2" s="24">
+        <f>B2</f>
+        <v>-3.0000000000000027E-2</v>
+      </c>
+      <c r="D2" s="24">
+        <f>'EIA Table 1'!E14-'EIA Table 1'!D14</f>
+        <v>-0.11000000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="29">
-        <f>'Texas Notes'!F38</f>
-        <v>-7.4999999999999983E-2</v>
-      </c>
-      <c r="C3" s="29">
-        <f>'Texas Notes'!G38</f>
-        <v>-7.4999999999999983E-2</v>
-      </c>
-      <c r="D3" s="29">
-        <f>'Texas Notes'!H38</f>
-        <v>-2.0800000000000003E-2</v>
+        <v>17</v>
+      </c>
+      <c r="B3" s="23">
+        <f>B5</f>
+        <v>-7.9999999999999988E-2</v>
+      </c>
+      <c r="C3" s="23">
+        <f t="shared" ref="C3:C6" si="0">B3</f>
+        <v>-7.9999999999999988E-2</v>
+      </c>
+      <c r="D3" s="23">
+        <f>D5</f>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="29">
-        <f>'Texas Notes'!F39</f>
-        <v>-4.4999999999999991E-2</v>
-      </c>
-      <c r="C4" s="29">
-        <f>'Texas Notes'!G39</f>
-        <v>-4.4999999999999991E-2</v>
-      </c>
-      <c r="D4" s="29">
-        <f>'Texas Notes'!H39</f>
-        <v>-2.0800000000000003E-2</v>
+        <v>18</v>
+      </c>
+      <c r="B4" s="24">
+        <f>'EIA Table 1'!F8-'EIA Table 1'!D8</f>
+        <v>-0.06</v>
+      </c>
+      <c r="C4" s="24">
+        <f t="shared" si="0"/>
+        <v>-0.06</v>
+      </c>
+      <c r="D4" s="24">
+        <f>'EIA Table 1'!F15-'EIA Table 1'!D15</f>
+        <v>-0.27999999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="29">
-        <f>'Texas Notes'!F40</f>
-        <v>-7.4999999999999983E-2</v>
-      </c>
-      <c r="C5" s="29">
-        <f>'Texas Notes'!G40</f>
-        <v>-7.4999999999999983E-2</v>
-      </c>
-      <c r="D5" s="29">
-        <f>'Texas Notes'!H40</f>
-        <v>-2.0800000000000003E-2</v>
+        <v>19</v>
+      </c>
+      <c r="B5" s="24">
+        <f>'EIA Table 1'!G9-'EIA Table 1'!D9</f>
+        <v>-7.9999999999999988E-2</v>
+      </c>
+      <c r="C5" s="24">
+        <f t="shared" si="0"/>
+        <v>-7.9999999999999988E-2</v>
+      </c>
+      <c r="D5" s="24">
+        <f>'EIA Table 1'!G16-'EIA Table 1'!D16</f>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="29">
-        <f>'Texas Notes'!F41</f>
+        <v>20</v>
+      </c>
+      <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6" s="29">
-        <f>'Texas Notes'!G41</f>
+      <c r="C6" s="25">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D6" s="29">
-        <f>'Texas Notes'!H41</f>
+      <c r="D6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="29">
-        <f>'Texas Notes'!F42</f>
+        <v>35</v>
+      </c>
+      <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7" s="29">
-        <f>'Texas Notes'!G42</f>
+      <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7" s="29">
-        <f>'Texas Notes'!H42</f>
+      <c r="D7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="29">
-        <f>'Texas Notes'!F43</f>
-        <v>-7.4999999999999983E-2</v>
-      </c>
-      <c r="C8" s="29">
-        <f>'Texas Notes'!G43</f>
-        <v>-7.4999999999999983E-2</v>
-      </c>
-      <c r="D8" s="29">
-        <f>'Texas Notes'!H43</f>
-        <v>-2.0800000000000003E-2</v>
+        <v>38</v>
+      </c>
+      <c r="B8" s="23">
+        <f>B5</f>
+        <v>-7.9999999999999988E-2</v>
+      </c>
+      <c r="C8" s="23">
+        <f t="shared" ref="C8:D8" si="1">C5</f>
+        <v>-7.9999999999999988E-2</v>
+      </c>
+      <c r="D8" s="23">
+        <f t="shared" si="1"/>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="29">
-        <f>'Texas Notes'!F44</f>
-        <v>-7.4999999999999983E-2</v>
-      </c>
-      <c r="C9" s="29">
-        <f>'Texas Notes'!G44</f>
-        <v>-7.4999999999999983E-2</v>
-      </c>
-      <c r="D9" s="29">
-        <f>'Texas Notes'!H44</f>
-        <v>-2.0800000000000003E-2</v>
+        <v>39</v>
+      </c>
+      <c r="B9" s="23">
+        <f>B5</f>
+        <v>-7.9999999999999988E-2</v>
+      </c>
+      <c r="C9" s="23">
+        <f t="shared" ref="C9:D9" si="2">C5</f>
+        <v>-7.9999999999999988E-2</v>
+      </c>
+      <c r="D9" s="23">
+        <f t="shared" si="2"/>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="29">
-        <f>'Texas Notes'!F45</f>
-        <v>-4.4999999999999991E-2</v>
-      </c>
-      <c r="C10" s="29">
-        <f>'Texas Notes'!G45</f>
-        <v>-4.4999999999999991E-2</v>
-      </c>
-      <c r="D10" s="29">
-        <f>'Texas Notes'!H45</f>
-        <v>-2.0800000000000003E-2</v>
+        <v>40</v>
+      </c>
+      <c r="B10" s="23">
+        <f>B4</f>
+        <v>-0.06</v>
+      </c>
+      <c r="C10" s="23">
+        <f t="shared" ref="C10:D10" si="3">C4</f>
+        <v>-0.06</v>
+      </c>
+      <c r="D10" s="23">
+        <f t="shared" si="3"/>
+        <v>-0.27999999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="29">
-        <f>'Texas Notes'!F46</f>
-        <v>-4.8333333333333325E-2</v>
-      </c>
-      <c r="C11" s="29">
-        <f>'Texas Notes'!G46</f>
-        <v>-4.8333333333333325E-2</v>
-      </c>
-      <c r="D11" s="29">
-        <f>'Texas Notes'!H46</f>
-        <v>-2.7999999999999997E-2</v>
+        <v>41</v>
+      </c>
+      <c r="B11" s="23">
+        <f>B2</f>
+        <v>-3.0000000000000027E-2</v>
+      </c>
+      <c r="C11" s="23">
+        <f t="shared" ref="C11:D11" si="4">C2</f>
+        <v>-3.0000000000000027E-2</v>
+      </c>
+      <c r="D11" s="23">
+        <f t="shared" si="4"/>
+        <v>-0.11000000000000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C3" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/InputData/bldgs/EoCEDwEC/Elast of Component E Demand wrt E Cost.xlsx
+++ b/InputData/bldgs/EoCEDwEC/Elast of Component E Demand wrt E Cost.xlsx
@@ -1,27 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\bldgs\EoCEDwEC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdeet\Documents\analysis\thirdParty\EPS Decarbonization Model\eps-us-2.1.1.2\InputData\bldgs\EoCEDwEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680CA530-6587-4C02-9F40-572336D96187}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="19425" windowHeight="11025" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="EIA Table 1" sheetId="2" r:id="rId2"/>
-    <sheet name="EoCEDwEC" sheetId="3" r:id="rId3"/>
+    <sheet name="Texas Notes" sheetId="4" r:id="rId3"/>
+    <sheet name="EoCEDwEC" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="84">
   <si>
     <t>EoCEDwEC Elasticity of Component Energy Demand wrt Energy Cost</t>
   </si>
@@ -32,6 +44,15 @@
     <t>U.S. Energy Information Administration</t>
   </si>
   <si>
+    <t>Price Responsiveness in the AEO 2003 NEMS Residential and Commercial Buildings Sector Models</t>
+  </si>
+  <si>
+    <t>http://www.eia.gov/oiaf/analysispaper/elasticity/pdf/tbl.pdf</t>
+  </si>
+  <si>
+    <t>Page 1, Table 1</t>
+  </si>
+  <si>
     <t>This is a subset of Table 1 that includes only values from AEO2003 (not AEO99).</t>
   </si>
   <si>
@@ -89,12 +110,21 @@
     <t>Note:</t>
   </si>
   <si>
+    <t>We use same-price, long-run elasticities minus the 1-year short-run elasticities.</t>
+  </si>
+  <si>
+    <t>We calculate it this way because we assume that 1-year elasticities primarily reflect behavior</t>
+  </si>
+  <si>
     <t>change rather than equipment change, and the response of behavior to price per unit service</t>
   </si>
   <si>
     <t>provided (that is, controlling for things like efficiency of equipment) should be constant at</t>
   </si>
   <si>
+    <t>all timescales.  So, the portion of the long-run elasticitiy represented by the 1-year elasticity</t>
+  </si>
+  <si>
     <t>is still behavior change, and the rest is equipment efficiency change, which is what we are</t>
   </si>
   <si>
@@ -164,29 +194,107 @@
     <t>Elasticity by Fuel (dimensionless)</t>
   </si>
   <si>
-    <t>https://www.eia.gov/analysis/studies/buildings/energyuse/pdf/price_elasticities.pdf</t>
-  </si>
-  <si>
-    <t>Price Elasticities for Energy Use in Buildings of the United States</t>
-  </si>
-  <si>
-    <t>Appendix</t>
-  </si>
-  <si>
-    <t>We use same-price, long-run elasticities minus the 3-year short-run elasticities.</t>
-  </si>
-  <si>
-    <t>We calculate it this way because we assume that 3-year elasticities primarily reflect behavior</t>
-  </si>
-  <si>
-    <t>all timescales.  So, the portion of the long-run elasticitiy represented by the 3-year elasticity</t>
+    <t xml:space="preserve">EPS numbers are based on national elasticity estimates, so we need to find some Texas specific numbers. </t>
+  </si>
+  <si>
+    <t>The method here is similar to what I did for the Elast of Bldg Svc Demand wrt E Costs spreadsheet</t>
+  </si>
+  <si>
+    <t>Except here I am using long run elasticity instead of short run elasticity</t>
+  </si>
+  <si>
+    <t>Texas Specific Data:</t>
+  </si>
+  <si>
+    <t>A 2006 NREL study about the elasticity of energy use by different regions</t>
+  </si>
+  <si>
+    <t>https://www.nrel.gov/docs/fy06osti/39512.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The study has state-level results, but they tend to have high uncertainty and wide standard deviations. </t>
+  </si>
+  <si>
+    <t>The study also has regional results, which are more robust. Texas is the "West South Central" (WSC) region with Oklahoma, Lousiana, and Arkansas.</t>
+  </si>
+  <si>
+    <t>Assume that the WSC region results will reflect Texas better than the national results. Assume that the state-level results are too uncertain to use here.</t>
+  </si>
+  <si>
+    <t>Takeaways</t>
+  </si>
+  <si>
+    <t>National Results (table 3.4)</t>
+  </si>
+  <si>
+    <t>West South Central Results</t>
+  </si>
+  <si>
+    <t>Adjustments</t>
+  </si>
+  <si>
+    <t>res elec</t>
+  </si>
+  <si>
+    <t>Texas elasticity is 54% of national</t>
+  </si>
+  <si>
+    <t>comm elec</t>
+  </si>
+  <si>
+    <t>Texas elasticity is 55% of national</t>
+  </si>
+  <si>
+    <t>res gas</t>
+  </si>
+  <si>
+    <t>Texas elasticity is 25% of national</t>
+  </si>
+  <si>
+    <t>Assumptions</t>
+  </si>
+  <si>
+    <t>Then:</t>
+  </si>
+  <si>
+    <t>OLD EPS VALUES</t>
+  </si>
+  <si>
+    <t>NEW TEXAS VALUES</t>
+  </si>
+  <si>
+    <t>long run elasticity for residential electricity</t>
+  </si>
+  <si>
+    <t>long run elasticity for commercial electricity</t>
+  </si>
+  <si>
+    <t>long run elasticity for residential natural gas</t>
+  </si>
+  <si>
+    <t>long run elasticity for residential electricity (Fig 4.6)</t>
+  </si>
+  <si>
+    <t>long run elasticity for commercial electricity (Fig 4.9)</t>
+  </si>
+  <si>
+    <t>long run elasticity for residential natural gas (Fig 4.13)</t>
+  </si>
+  <si>
+    <t>since Texas vs. National adjustments for electricity are about double for residential (0.56) than commercial (.26) assume that the same ratio holds for natural gas: i.e., residential=0.17, commercial=0.08</t>
+  </si>
+  <si>
+    <t>assume that the adjusftment factor for other fuels (coal, diesel, etc.) is  the same as for natural gas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,8 +318,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,20 +347,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -362,12 +473,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -401,18 +521,58 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -501,6 +661,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -536,6 +713,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -711,11 +905,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,134 +930,134 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -871,12 +1065,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -891,17 +1083,17 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -913,57 +1105,57 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="6"/>
       <c r="E5" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7" s="7">
-        <v>-0.12</v>
+        <v>-0.2</v>
       </c>
       <c r="C7" s="8">
-        <v>-0.21</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="D7" s="9">
-        <v>-0.25</v>
+        <v>-0.34</v>
       </c>
       <c r="E7" s="7">
-        <v>-0.28000000000000003</v>
+        <v>-0.49</v>
       </c>
       <c r="F7" s="8">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G7" s="9">
         <v>0</v>
@@ -971,53 +1163,53 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8" s="7">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="C8" s="8">
-        <v>-0.13</v>
+        <v>-0.24</v>
       </c>
       <c r="D8" s="9">
-        <v>-0.15</v>
+        <v>-0.3</v>
       </c>
       <c r="E8" s="7">
-        <v>0.03</v>
+        <v>0.13</v>
       </c>
       <c r="F8" s="19">
-        <v>-0.21</v>
+        <v>-0.41</v>
       </c>
       <c r="G8" s="9">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9" s="10">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.15</v>
       </c>
       <c r="C9" s="11">
-        <v>-0.12</v>
+        <v>-0.27</v>
       </c>
       <c r="D9" s="12">
-        <v>-0.14000000000000001</v>
+        <v>-0.34</v>
       </c>
       <c r="E9" s="10">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F9" s="11">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="G9" s="12">
-        <v>-0.22</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -1029,57 +1221,57 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
       <c r="E12" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B14" s="7">
-        <v>-0.11</v>
+        <v>-0.1</v>
       </c>
       <c r="C14" s="8">
-        <v>-0.18</v>
+        <v>-0.17</v>
       </c>
       <c r="D14" s="9">
-        <v>-0.22</v>
+        <v>-0.2</v>
       </c>
       <c r="E14" s="7">
-        <v>-0.33</v>
+        <v>-0.45</v>
       </c>
       <c r="F14" s="19">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="G14" s="9">
         <v>0</v>
@@ -1087,48 +1279,48 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B15" s="7">
-        <v>-0.15</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="C15" s="8">
-        <v>-0.25</v>
+        <v>-0.24</v>
       </c>
       <c r="D15" s="9">
-        <v>-0.3</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="E15" s="7">
-        <v>0.15</v>
+        <v>0.86</v>
       </c>
       <c r="F15" s="19">
-        <v>-0.57999999999999996</v>
+        <v>-0.4</v>
       </c>
       <c r="G15" s="9">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B16" s="10">
-        <v>-0.14000000000000001</v>
+        <v>-0.13</v>
       </c>
       <c r="C16" s="11">
-        <v>-0.24</v>
+        <v>-0.23</v>
       </c>
       <c r="D16" s="12">
-        <v>-0.28999999999999998</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="E16" s="10">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="F16" s="11">
-        <v>0.05</v>
+        <v>0.75</v>
       </c>
       <c r="G16" s="12">
-        <v>-0.42</v>
+        <v>-0.39</v>
       </c>
     </row>
   </sheetData>
@@ -1137,14 +1329,509 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A24A6B0-9EAC-4377-ABF4-0CCE774154F2}">
+  <dimension ref="A1:H46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>-0.32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>-0.97</v>
+      </c>
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="24">
+        <v>-0.36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>-0.18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>-0.25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="24">
+        <v>-0.06</v>
+      </c>
+      <c r="B22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="24">
+        <f>A20/A15</f>
+        <v>0.5625</v>
+      </c>
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="24">
+        <f t="shared" ref="A26:A27" si="0">A21/A16</f>
+        <v>0.25773195876288663</v>
+      </c>
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="24">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="B27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="F35" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+    </row>
+    <row r="36" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H36" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="28">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="C37" s="28">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="D37" s="28">
+        <v>-0.35</v>
+      </c>
+      <c r="F37">
+        <f>B37*A25</f>
+        <v>-0.16312499999999999</v>
+      </c>
+      <c r="G37">
+        <f>F37</f>
+        <v>-0.16312499999999999</v>
+      </c>
+      <c r="H37">
+        <f>D37*A26</f>
+        <v>-9.0206185567010308E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="28">
+        <v>-0.44999999999999996</v>
+      </c>
+      <c r="C38" s="28">
+        <v>-0.44999999999999996</v>
+      </c>
+      <c r="D38" s="28">
+        <v>-0.26</v>
+      </c>
+      <c r="F38">
+        <f>B38*$A$27</f>
+        <v>-7.4999999999999983E-2</v>
+      </c>
+      <c r="G38">
+        <f>F38</f>
+        <v>-7.4999999999999983E-2</v>
+      </c>
+      <c r="H38">
+        <f>D38*0.08</f>
+        <v>-2.0800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="28">
+        <v>-0.26999999999999996</v>
+      </c>
+      <c r="C39" s="28">
+        <v>-0.26999999999999996</v>
+      </c>
+      <c r="D39" s="28">
+        <v>-0.26</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ref="F39:F46" si="1">B39*$A$27</f>
+        <v>-4.4999999999999991E-2</v>
+      </c>
+      <c r="G39">
+        <f t="shared" ref="G39:G46" si="2">F39</f>
+        <v>-4.4999999999999991E-2</v>
+      </c>
+      <c r="H39">
+        <f t="shared" ref="H39:H46" si="3">D39*0.08</f>
+        <v>-2.0800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="28">
+        <v>-0.44999999999999996</v>
+      </c>
+      <c r="C40" s="28">
+        <v>-0.44999999999999996</v>
+      </c>
+      <c r="D40" s="28">
+        <v>-0.26</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>-7.4999999999999983E-2</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="2"/>
+        <v>-7.4999999999999983E-2</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="3"/>
+        <v>-2.0800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="28">
+        <v>0</v>
+      </c>
+      <c r="C41" s="28">
+        <v>0</v>
+      </c>
+      <c r="D41" s="28">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="28">
+        <v>0</v>
+      </c>
+      <c r="C42" s="28">
+        <v>0</v>
+      </c>
+      <c r="D42" s="28">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="28">
+        <v>-0.44999999999999996</v>
+      </c>
+      <c r="C43" s="28">
+        <v>-0.44999999999999996</v>
+      </c>
+      <c r="D43" s="28">
+        <v>-0.26</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>-7.4999999999999983E-2</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="2"/>
+        <v>-7.4999999999999983E-2</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="3"/>
+        <v>-2.0800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="28">
+        <v>-0.44999999999999996</v>
+      </c>
+      <c r="C44" s="28">
+        <v>-0.44999999999999996</v>
+      </c>
+      <c r="D44" s="28">
+        <v>-0.26</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>-7.4999999999999983E-2</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="2"/>
+        <v>-7.4999999999999983E-2</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="3"/>
+        <v>-2.0800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="28">
+        <v>-0.26999999999999996</v>
+      </c>
+      <c r="C45" s="28">
+        <v>-0.26999999999999996</v>
+      </c>
+      <c r="D45" s="28">
+        <v>-0.26</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>-4.4999999999999991E-2</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="2"/>
+        <v>-4.4999999999999991E-2</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="3"/>
+        <v>-2.0800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="28">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="C46" s="28">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="D46" s="28">
+        <v>-0.35</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>-4.8333333333333325E-2</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="2"/>
+        <v>-4.8333333333333325E-2</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="3"/>
+        <v>-2.7999999999999997E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="F35:H35"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B15:B17">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:B27 B30:B31">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:B22">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A8" r:id="rId1" xr:uid="{764691C7-A221-4236-A0B4-BEBBE13F4247}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1155,188 +1842,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>46</v>
+      <c r="A1" s="23" t="s">
+        <v>52</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="24">
-        <f>'EIA Table 1'!E7-'EIA Table 1'!D7</f>
-        <v>-3.0000000000000027E-2</v>
-      </c>
-      <c r="C2" s="24">
-        <f>B2</f>
-        <v>-3.0000000000000027E-2</v>
-      </c>
-      <c r="D2" s="24">
-        <f>'EIA Table 1'!E14-'EIA Table 1'!D14</f>
-        <v>-0.11000000000000001</v>
+        <v>19</v>
+      </c>
+      <c r="B2" s="29">
+        <f>'Texas Notes'!F37</f>
+        <v>-0.16312499999999999</v>
+      </c>
+      <c r="C2" s="29">
+        <f>'Texas Notes'!G37</f>
+        <v>-0.16312499999999999</v>
+      </c>
+      <c r="D2" s="29">
+        <f>'Texas Notes'!H37</f>
+        <v>-9.0206185567010308E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="23">
-        <f>B5</f>
-        <v>-7.9999999999999988E-2</v>
-      </c>
-      <c r="C3" s="23">
-        <f t="shared" ref="C3:C6" si="0">B3</f>
-        <v>-7.9999999999999988E-2</v>
-      </c>
-      <c r="D3" s="23">
-        <f>D5</f>
-        <v>-0.13</v>
+        <v>20</v>
+      </c>
+      <c r="B3" s="29">
+        <f>'Texas Notes'!F38</f>
+        <v>-7.4999999999999983E-2</v>
+      </c>
+      <c r="C3" s="29">
+        <f>'Texas Notes'!G38</f>
+        <v>-7.4999999999999983E-2</v>
+      </c>
+      <c r="D3" s="29">
+        <f>'Texas Notes'!H38</f>
+        <v>-2.0800000000000003E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="24">
-        <f>'EIA Table 1'!F8-'EIA Table 1'!D8</f>
-        <v>-0.06</v>
-      </c>
-      <c r="C4" s="24">
-        <f t="shared" si="0"/>
-        <v>-0.06</v>
-      </c>
-      <c r="D4" s="24">
-        <f>'EIA Table 1'!F15-'EIA Table 1'!D15</f>
-        <v>-0.27999999999999997</v>
+        <v>21</v>
+      </c>
+      <c r="B4" s="29">
+        <f>'Texas Notes'!F39</f>
+        <v>-4.4999999999999991E-2</v>
+      </c>
+      <c r="C4" s="29">
+        <f>'Texas Notes'!G39</f>
+        <v>-4.4999999999999991E-2</v>
+      </c>
+      <c r="D4" s="29">
+        <f>'Texas Notes'!H39</f>
+        <v>-2.0800000000000003E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="24">
-        <f>'EIA Table 1'!G9-'EIA Table 1'!D9</f>
-        <v>-7.9999999999999988E-2</v>
-      </c>
-      <c r="C5" s="24">
-        <f t="shared" si="0"/>
-        <v>-7.9999999999999988E-2</v>
-      </c>
-      <c r="D5" s="24">
-        <f>'EIA Table 1'!G16-'EIA Table 1'!D16</f>
-        <v>-0.13</v>
+        <v>22</v>
+      </c>
+      <c r="B5" s="29">
+        <f>'Texas Notes'!F40</f>
+        <v>-7.4999999999999983E-2</v>
+      </c>
+      <c r="C5" s="29">
+        <f>'Texas Notes'!G40</f>
+        <v>-7.4999999999999983E-2</v>
+      </c>
+      <c r="D5" s="29">
+        <f>'Texas Notes'!H40</f>
+        <v>-2.0800000000000003E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6">
+        <v>23</v>
+      </c>
+      <c r="B6" s="29">
+        <f>'Texas Notes'!F41</f>
         <v>0</v>
       </c>
-      <c r="C6" s="25">
-        <f t="shared" si="0"/>
+      <c r="C6" s="29">
+        <f>'Texas Notes'!G41</f>
         <v>0</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="29">
+        <f>'Texas Notes'!H41</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7">
+        <v>41</v>
+      </c>
+      <c r="B7" s="29">
+        <f>'Texas Notes'!F42</f>
         <v>0</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="29">
+        <f>'Texas Notes'!G42</f>
         <v>0</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="29">
+        <f>'Texas Notes'!H42</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="23">
-        <f>B5</f>
-        <v>-7.9999999999999988E-2</v>
-      </c>
-      <c r="C8" s="23">
-        <f t="shared" ref="C8:D8" si="1">C5</f>
-        <v>-7.9999999999999988E-2</v>
-      </c>
-      <c r="D8" s="23">
-        <f t="shared" si="1"/>
-        <v>-0.13</v>
+        <v>44</v>
+      </c>
+      <c r="B8" s="29">
+        <f>'Texas Notes'!F43</f>
+        <v>-7.4999999999999983E-2</v>
+      </c>
+      <c r="C8" s="29">
+        <f>'Texas Notes'!G43</f>
+        <v>-7.4999999999999983E-2</v>
+      </c>
+      <c r="D8" s="29">
+        <f>'Texas Notes'!H43</f>
+        <v>-2.0800000000000003E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="23">
-        <f>B5</f>
-        <v>-7.9999999999999988E-2</v>
-      </c>
-      <c r="C9" s="23">
-        <f t="shared" ref="C9:D9" si="2">C5</f>
-        <v>-7.9999999999999988E-2</v>
-      </c>
-      <c r="D9" s="23">
-        <f t="shared" si="2"/>
-        <v>-0.13</v>
+        <v>45</v>
+      </c>
+      <c r="B9" s="29">
+        <f>'Texas Notes'!F44</f>
+        <v>-7.4999999999999983E-2</v>
+      </c>
+      <c r="C9" s="29">
+        <f>'Texas Notes'!G44</f>
+        <v>-7.4999999999999983E-2</v>
+      </c>
+      <c r="D9" s="29">
+        <f>'Texas Notes'!H44</f>
+        <v>-2.0800000000000003E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="23">
-        <f>B4</f>
-        <v>-0.06</v>
-      </c>
-      <c r="C10" s="23">
-        <f t="shared" ref="C10:D10" si="3">C4</f>
-        <v>-0.06</v>
-      </c>
-      <c r="D10" s="23">
-        <f t="shared" si="3"/>
-        <v>-0.27999999999999997</v>
+        <v>46</v>
+      </c>
+      <c r="B10" s="29">
+        <f>'Texas Notes'!F45</f>
+        <v>-4.4999999999999991E-2</v>
+      </c>
+      <c r="C10" s="29">
+        <f>'Texas Notes'!G45</f>
+        <v>-4.4999999999999991E-2</v>
+      </c>
+      <c r="D10" s="29">
+        <f>'Texas Notes'!H45</f>
+        <v>-2.0800000000000003E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="23">
-        <f>B2</f>
-        <v>-3.0000000000000027E-2</v>
-      </c>
-      <c r="C11" s="23">
-        <f t="shared" ref="C11:D11" si="4">C2</f>
-        <v>-3.0000000000000027E-2</v>
-      </c>
-      <c r="D11" s="23">
-        <f t="shared" si="4"/>
-        <v>-0.11000000000000001</v>
+        <v>47</v>
+      </c>
+      <c r="B11" s="29">
+        <f>'Texas Notes'!F46</f>
+        <v>-4.8333333333333325E-2</v>
+      </c>
+      <c r="C11" s="29">
+        <f>'Texas Notes'!G46</f>
+        <v>-4.8333333333333325E-2</v>
+      </c>
+      <c r="D11" s="29">
+        <f>'Texas Notes'!H46</f>
+        <v>-2.7999999999999997E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="C3" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>